--- a/Domande.xlsx
+++ b/Domande.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppe/Library/Mobile Documents/com~apple~CloudDocs/Scuola/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369DDC17-DAEB-804C-A04A-E9541D02D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1509282-D27D-354F-B4EA-51C6765661D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{542A1D8C-5EA1-2241-B334-82C7879CAB62}"/>
   </bookViews>
@@ -3538,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473F2932-1729-E84D-8CEF-C48A65CD3862}">
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F242" sqref="F242"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9686,7 +9686,9 @@
       <c r="F181" s="11" t="s">
         <v>983</v>
       </c>
-      <c r="G181" s="11"/>
+      <c r="G181" s="11">
+        <v>2</v>
+      </c>
       <c r="H181" s="10" t="s">
         <v>1007</v>
       </c>
@@ -9719,7 +9721,9 @@
       <c r="F182" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="G182" s="11"/>
+      <c r="G182" s="11">
+        <v>3</v>
+      </c>
       <c r="H182" s="10" t="s">
         <v>1007</v>
       </c>
@@ -9752,7 +9756,9 @@
       <c r="F183" s="11" t="s">
         <v>985</v>
       </c>
-      <c r="G183" s="11"/>
+      <c r="G183" s="11">
+        <v>3</v>
+      </c>
       <c r="H183" s="10" t="s">
         <v>1011</v>
       </c>
@@ -9785,7 +9791,9 @@
       <c r="F184" s="11" t="s">
         <v>986</v>
       </c>
-      <c r="G184" s="11"/>
+      <c r="G184" s="11">
+        <v>2</v>
+      </c>
       <c r="H184" s="10" t="s">
         <v>1013</v>
       </c>
@@ -9818,7 +9826,9 @@
       <c r="F185" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="G185" s="11"/>
+      <c r="G185" s="11">
+        <v>1</v>
+      </c>
       <c r="H185" s="10" t="s">
         <v>998</v>
       </c>
@@ -11776,7 +11786,7 @@
         <v>215</v>
       </c>
       <c r="C244" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>691</v>
@@ -11811,7 +11821,7 @@
         <v>215</v>
       </c>
       <c r="C245" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>691</v>
@@ -11846,7 +11856,7 @@
         <v>215</v>
       </c>
       <c r="C246" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>691</v>
